--- a/doc/Documento de Análisis/Framework Proyecto Configuración del Software.xlsx
+++ b/doc/Documento de Análisis/Framework Proyecto Configuración del Software.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyecto_Conf\unmsm_G01_GCS\doc\Documento de Análisis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BF7753-D8FA-49BF-9438-88F85D84EF11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28065" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Agile Project Charter" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Product Backlog" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Sprint Backlog" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Plan de Lanzamiento" sheetId="4" r:id="rId7"/>
+    <sheet name="Agile Project Charter" sheetId="1" r:id="rId1"/>
+    <sheet name="Product Backlog" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprint Backlog" sheetId="3" r:id="rId3"/>
+    <sheet name="Plan de Lanzamiento" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -484,78 +493,85 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="15">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="&quot;Times New Roman&quot;"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -565,7 +581,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -593,27 +609,39 @@
     </fill>
   </fills>
   <borders count="8">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -623,6 +651,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -637,6 +666,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -648,6 +678,8 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -656,6 +688,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -664,136 +699,121 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+  <cellXfs count="33">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -983,322 +1003,327 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFA61C00"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:E4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="27.71"/>
-    <col customWidth="1" min="3" max="3" width="24.29"/>
-    <col customWidth="1" min="4" max="4" width="41.14"/>
-    <col customWidth="1" min="5" max="5" width="30.86"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="41.140625" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9">
       <c r="A1" s="1"/>
     </row>
-    <row r="2">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:9">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3">
-      <c r="B3" s="5" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4">
-      <c r="B4" s="5" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="20"/>
+    </row>
+    <row r="4" spans="1:9" ht="34.5" customHeight="1">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5">
-      <c r="B5" s="5" t="s">
+      <c r="D4" s="25"/>
+      <c r="E4" s="20"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6">
-      <c r="B6" s="9" t="s">
+      <c r="D5" s="25"/>
+      <c r="E5" s="20"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7">
-      <c r="B7" s="12"/>
-      <c r="C7" s="13" t="s">
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" s="21"/>
+      <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" s="12"/>
-      <c r="C8" s="13" t="s">
+    <row r="8" spans="1:9">
+      <c r="B8" s="21"/>
+      <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="12"/>
-      <c r="C9" s="15" t="s">
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" s="21"/>
+      <c r="C9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="14" t="s">
+    <row r="10" spans="1:9">
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="14" t="s">
+    <row r="11" spans="1:9">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="14" t="s">
+    <row r="12" spans="1:9">
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="14" t="s">
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14">
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="14" t="s">
+    <row r="14" spans="1:9">
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="14" t="s">
+    <row r="15" spans="1:9">
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16">
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="14" t="s">
+    <row r="16" spans="1:9">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17">
-      <c r="B17" s="9" t="s">
+    <row r="17" spans="2:5">
+      <c r="B17" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18">
-      <c r="B18" s="16"/>
-      <c r="C18" s="17" t="s">
+    <row r="18" spans="2:5">
+      <c r="B18" s="18"/>
+      <c r="C18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19">
-      <c r="B19" s="9" t="s">
+    <row r="19" spans="2:5">
+      <c r="B19" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="20">
-        <v>44347.0</v>
-      </c>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20">
-      <c r="B20" s="12"/>
-      <c r="C20" s="13" t="s">
+      <c r="D19" s="19">
+        <v>44347</v>
+      </c>
+      <c r="E19" s="20"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="21"/>
+      <c r="C20" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="20">
-        <v>44469.0</v>
-      </c>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21">
-      <c r="B21" s="12"/>
-      <c r="C21" s="15" t="s">
+      <c r="D20" s="19">
+        <v>44469</v>
+      </c>
+      <c r="E20" s="20"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="21"/>
+      <c r="C21" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22">
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="8" t="s">
+      <c r="E21" s="20"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="9" t="s">
+      <c r="E22" s="20"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="23" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24">
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="9" t="s">
+    <row r="24" spans="2:5">
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26">
-      <c r="B26" s="16"/>
-      <c r="C26" s="22" t="s">
+    <row r="26" spans="2:5">
+      <c r="B26" s="18"/>
+      <c r="C26" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27">
-      <c r="B27" s="9" t="s">
+    <row r="27" spans="2:5">
+      <c r="B27" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28">
-      <c r="B28" s="16"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="4"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="20"/>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="18"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B6:B16"/>
+    <mergeCell ref="C9:C16"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="D21:E21"/>
@@ -1307,794 +1332,862 @@
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="C27:E27"/>
     <mergeCell ref="C28:E28"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B6:B16"/>
-    <mergeCell ref="C9:C16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
     <mergeCell ref="D20:E20"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C4"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFCC0000"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B1:O30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="1.71"/>
-    <col customWidth="1" min="2" max="2" width="20.57"/>
-    <col customWidth="1" min="3" max="3" width="10.14"/>
-    <col customWidth="1" min="4" max="5" width="23.0"/>
-    <col customWidth="1" min="6" max="6" width="27.0"/>
-    <col customWidth="1" min="7" max="7" width="16.43"/>
-    <col customWidth="1" min="8" max="8" width="33.57"/>
-    <col customWidth="1" min="9" max="9" width="36.86"/>
-    <col customWidth="1" min="10" max="10" width="48.29"/>
-    <col customWidth="1" min="11" max="11" width="35.29"/>
-    <col customWidth="1" min="12" max="12" width="51.57"/>
-    <col customWidth="1" min="15" max="15" width="44.57"/>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="33.5703125" customWidth="1"/>
+    <col min="9" max="9" width="36.85546875" customWidth="1"/>
+    <col min="10" max="10" width="48.28515625" customWidth="1"/>
+    <col min="11" max="11" width="35.28515625" customWidth="1"/>
+    <col min="12" max="12" width="51.5703125" customWidth="1"/>
+    <col min="15" max="15" width="44.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="9.0" customHeight="1"/>
-    <row r="2">
-      <c r="B2" s="23" t="s">
+    <row r="1" spans="2:15" ht="6.75" customHeight="1"/>
+    <row r="2" spans="2:15" ht="27.75" customHeight="1">
+      <c r="B2" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="25" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="24" t="s">
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="M2" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="O2" s="31" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="26" t="s">
+    <row r="3" spans="2:15" ht="31.5">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-    </row>
-    <row r="4">
-      <c r="B4" s="27" t="s">
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+    </row>
+    <row r="4" spans="2:15" ht="42.75">
+      <c r="B4" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="D4" s="29" t="s">
+      <c r="C4" s="29">
+        <v>1</v>
+      </c>
+      <c r="D4" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="H4" s="29" t="s">
+      <c r="G4" s="12">
+        <v>1</v>
+      </c>
+      <c r="H4" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="K4" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="L4" s="29" t="s">
+      <c r="L4" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-    </row>
-    <row r="5">
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="29" t="s">
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+    </row>
+    <row r="5" spans="2:15" ht="42.75">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="12">
+        <v>2</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="J5" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-    </row>
-    <row r="6">
-      <c r="B6" s="12"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="30">
-        <v>3.0</v>
-      </c>
-      <c r="H6" s="30" t="s">
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+    </row>
+    <row r="6" spans="2:15" ht="42.75">
+      <c r="B6" s="21"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="12">
+        <v>3</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="30" t="s">
+      <c r="I6" s="18"/>
+      <c r="J6" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7">
-      <c r="B7" s="12"/>
-      <c r="C7" s="32">
-        <v>2.0</v>
-      </c>
-      <c r="D7" s="30" t="s">
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+    </row>
+    <row r="7" spans="2:15" ht="42.75">
+      <c r="B7" s="21"/>
+      <c r="C7" s="14">
+        <v>2</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="H7" s="30" t="s">
+      <c r="G7" s="12">
+        <v>1</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="J7" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="K7" s="30" t="s">
+      <c r="K7" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="L7" s="30" t="s">
+      <c r="L7" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-    </row>
-    <row r="8" ht="31.5" customHeight="1">
-      <c r="B8" s="12"/>
-      <c r="C8" s="28">
-        <v>3.0</v>
-      </c>
-      <c r="D8" s="29" t="s">
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+    </row>
+    <row r="8" spans="2:15" ht="31.5" customHeight="1">
+      <c r="B8" s="21"/>
+      <c r="C8" s="29">
+        <v>3</v>
+      </c>
+      <c r="D8" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="H8" s="30" t="s">
+      <c r="G8" s="12">
+        <v>1</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="I8" s="29" t="s">
+      <c r="I8" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="J8" s="29" t="s">
+      <c r="J8" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="K8" s="29" t="s">
+      <c r="K8" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="L8" s="29" t="s">
+      <c r="L8" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-    </row>
-    <row r="9" ht="35.25" customHeight="1">
-      <c r="B9" s="12"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="H9" s="30" t="s">
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+    </row>
+    <row r="9" spans="2:15" ht="35.25" customHeight="1">
+      <c r="B9" s="21"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="12">
+        <v>2</v>
+      </c>
+      <c r="H9" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="16"/>
-      <c r="C10" s="32">
-        <v>4.0</v>
-      </c>
-      <c r="D10" s="30" t="s">
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+    </row>
+    <row r="10" spans="2:15" ht="42.75">
+      <c r="B10" s="18"/>
+      <c r="C10" s="14">
+        <v>4</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="G10" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="H10" s="30" t="s">
+      <c r="G10" s="12">
+        <v>1</v>
+      </c>
+      <c r="H10" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="I10" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="J10" s="30" t="s">
+      <c r="J10" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="K10" s="30" t="s">
+      <c r="K10" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="L10" s="30" t="s">
+      <c r="L10" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-    </row>
-    <row r="11" ht="27.75" customHeight="1">
-      <c r="B11" s="27" t="s">
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+    </row>
+    <row r="11" spans="2:15" ht="27.75" customHeight="1">
+      <c r="B11" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="28">
-        <v>5.0</v>
-      </c>
-      <c r="D11" s="29" t="s">
+      <c r="C11" s="29">
+        <v>5</v>
+      </c>
+      <c r="D11" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="G11" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="H11" s="30" t="s">
+      <c r="G11" s="12">
+        <v>1</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="I11" s="29" t="s">
+      <c r="I11" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="J11" s="29" t="s">
+      <c r="J11" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="K11" s="29" t="s">
+      <c r="K11" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="L11" s="29" t="s">
+      <c r="L11" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-    </row>
-    <row r="12" ht="30.75" customHeight="1">
-      <c r="B12" s="12"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="H12" s="30" t="s">
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+    </row>
+    <row r="12" spans="2:15" ht="30.75" customHeight="1">
+      <c r="B12" s="21"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="12">
+        <v>2</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-    </row>
-    <row r="13" ht="38.25" customHeight="1">
-      <c r="B13" s="12"/>
-      <c r="C13" s="28">
-        <v>6.0</v>
-      </c>
-      <c r="D13" s="29" t="s">
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+    </row>
+    <row r="13" spans="2:15" ht="38.25" customHeight="1">
+      <c r="B13" s="21"/>
+      <c r="C13" s="29">
+        <v>6</v>
+      </c>
+      <c r="D13" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="G13" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="H13" s="30" t="s">
+      <c r="G13" s="12">
+        <v>1</v>
+      </c>
+      <c r="H13" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="J13" s="29" t="s">
+      <c r="J13" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="K13" s="29" t="s">
+      <c r="K13" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="L13" s="29" t="s">
+      <c r="L13" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-    </row>
-    <row r="14" ht="38.25" customHeight="1">
-      <c r="B14" s="12"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="H14" s="30" t="s">
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+    </row>
+    <row r="14" spans="2:15" ht="38.25" customHeight="1">
+      <c r="B14" s="21"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="12">
+        <v>2</v>
+      </c>
+      <c r="H14" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-    </row>
-    <row r="15" ht="27.0" customHeight="1">
-      <c r="B15" s="12"/>
-      <c r="C15" s="28">
-        <v>7.0</v>
-      </c>
-      <c r="D15" s="29" t="s">
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+    </row>
+    <row r="15" spans="2:15" ht="27" customHeight="1">
+      <c r="B15" s="21"/>
+      <c r="C15" s="29">
+        <v>7</v>
+      </c>
+      <c r="D15" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="G15" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="H15" s="30" t="s">
+      <c r="G15" s="12">
+        <v>1</v>
+      </c>
+      <c r="H15" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I15" s="29" t="s">
+      <c r="I15" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="J15" s="29" t="s">
+      <c r="J15" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="K15" s="29" t="s">
+      <c r="K15" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="L15" s="29" t="s">
+      <c r="L15" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-    </row>
-    <row r="16" ht="24.0" customHeight="1">
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="H16" s="30" t="s">
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+    </row>
+    <row r="16" spans="2:15" ht="24" customHeight="1">
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="12">
+        <v>2</v>
+      </c>
+      <c r="H16" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-    </row>
-    <row r="17" ht="24.0" customHeight="1">
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="30">
-        <v>3.0</v>
-      </c>
-      <c r="H17" s="30" t="s">
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+    </row>
+    <row r="17" spans="2:15" ht="24" customHeight="1">
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="12">
+        <v>3</v>
+      </c>
+      <c r="H17" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I17" s="29" t="s">
+      <c r="I17" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="J17" s="29" t="s">
+      <c r="J17" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="K17" s="12"/>
-      <c r="L17" s="29" t="s">
+      <c r="K17" s="21"/>
+      <c r="L17" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-    </row>
-    <row r="18" ht="24.0" customHeight="1">
-      <c r="B18" s="12"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="30">
-        <v>4.0</v>
-      </c>
-      <c r="H18" s="30" t="s">
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+    </row>
+    <row r="18" spans="2:15" ht="24" customHeight="1">
+      <c r="B18" s="21"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="12">
+        <v>4</v>
+      </c>
+      <c r="H18" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-    </row>
-    <row r="19" ht="48.0" customHeight="1">
-      <c r="B19" s="12"/>
-      <c r="C19" s="28">
-        <v>8.0</v>
-      </c>
-      <c r="D19" s="29" t="s">
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+    </row>
+    <row r="19" spans="2:15" ht="48" customHeight="1">
+      <c r="B19" s="21"/>
+      <c r="C19" s="29">
+        <v>8</v>
+      </c>
+      <c r="D19" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="29" t="s">
+      <c r="F19" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="G19" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="H19" s="30" t="s">
+      <c r="G19" s="12">
+        <v>1</v>
+      </c>
+      <c r="H19" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="I19" s="29" t="s">
+      <c r="I19" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="J19" s="29" t="s">
+      <c r="J19" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="K19" s="29" t="s">
+      <c r="K19" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="L19" s="29" t="s">
+      <c r="L19" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-    </row>
-    <row r="20" ht="48.0" customHeight="1">
-      <c r="B20" s="12"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="H20" s="30" t="s">
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+    </row>
+    <row r="20" spans="2:15" ht="48" customHeight="1">
+      <c r="B20" s="21"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="12">
+        <v>2</v>
+      </c>
+      <c r="H20" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-    </row>
-    <row r="21" ht="60.0" customHeight="1">
-      <c r="B21" s="12"/>
-      <c r="C21" s="28">
-        <v>9.0</v>
-      </c>
-      <c r="D21" s="29" t="s">
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+    </row>
+    <row r="21" spans="2:15" ht="60" customHeight="1">
+      <c r="B21" s="21"/>
+      <c r="C21" s="29">
+        <v>9</v>
+      </c>
+      <c r="D21" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="F21" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="G21" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="H21" s="30" t="s">
+      <c r="G21" s="12">
+        <v>1</v>
+      </c>
+      <c r="H21" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="I21" s="29" t="s">
+      <c r="I21" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="J21" s="29" t="s">
+      <c r="J21" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="K21" s="29" t="s">
+      <c r="K21" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="L21" s="29" t="s">
+      <c r="L21" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-    </row>
-    <row r="22" ht="58.5" customHeight="1">
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="H22" s="30" t="s">
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+    </row>
+    <row r="22" spans="2:15" ht="58.5" customHeight="1">
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="12">
+        <v>2</v>
+      </c>
+      <c r="H22" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-    </row>
-    <row r="23" ht="39.75" customHeight="1">
-      <c r="B23" s="27" t="s">
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+    </row>
+    <row r="23" spans="2:15" ht="39.75" customHeight="1">
+      <c r="B23" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="C23" s="28">
-        <v>10.0</v>
-      </c>
-      <c r="D23" s="29" t="s">
+      <c r="C23" s="29">
+        <v>10</v>
+      </c>
+      <c r="D23" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="29" t="s">
+      <c r="E23" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="F23" s="29" t="s">
+      <c r="F23" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="G23" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="H23" s="30" t="s">
+      <c r="G23" s="12">
+        <v>1</v>
+      </c>
+      <c r="H23" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="I23" s="29" t="s">
+      <c r="I23" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="J23" s="29" t="s">
+      <c r="J23" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="K23" s="29" t="s">
+      <c r="K23" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="L23" s="29" t="s">
+      <c r="L23" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-    </row>
-    <row r="24" ht="39.75" customHeight="1">
-      <c r="B24" s="12"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="H24" s="30" t="s">
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+    </row>
+    <row r="24" spans="2:15" ht="39.75" customHeight="1">
+      <c r="B24" s="21"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="12">
+        <v>2</v>
+      </c>
+      <c r="H24" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="12"/>
-      <c r="C25" s="32">
-        <v>11.0</v>
-      </c>
-      <c r="D25" s="30" t="s">
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+    </row>
+    <row r="25" spans="2:15" ht="57">
+      <c r="B25" s="21"/>
+      <c r="C25" s="14">
+        <v>11</v>
+      </c>
+      <c r="D25" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="E25" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="F25" s="30" t="s">
+      <c r="F25" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="G25" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="H25" s="30" t="s">
+      <c r="G25" s="12">
+        <v>1</v>
+      </c>
+      <c r="H25" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I25" s="33" t="s">
+      <c r="I25" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="J25" s="33" t="s">
+      <c r="J25" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="K25" s="33" t="s">
+      <c r="K25" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="L25" s="33" t="s">
+      <c r="L25" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-    </row>
-    <row r="26" ht="88.5" customHeight="1">
-      <c r="B26" s="16"/>
-      <c r="C26" s="32">
-        <v>12.0</v>
-      </c>
-      <c r="D26" s="30" t="s">
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+    </row>
+    <row r="26" spans="2:15" ht="88.5" customHeight="1">
+      <c r="B26" s="18"/>
+      <c r="C26" s="14">
+        <v>12</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="F26" s="30" t="s">
+      <c r="F26" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="G26" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="H26" s="30" t="s">
+      <c r="G26" s="12">
+        <v>1</v>
+      </c>
+      <c r="H26" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I26" s="30" t="s">
+      <c r="I26" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="J26" s="30" t="s">
+      <c r="J26" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="K26" s="30" t="s">
+      <c r="K26" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="L26" s="30" t="s">
+      <c r="L26" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-    </row>
-    <row r="27">
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-    </row>
-    <row r="28">
-      <c r="G28" s="34"/>
-    </row>
-    <row r="29">
-      <c r="G29" s="34"/>
-    </row>
-    <row r="30">
-      <c r="G30" s="34"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+    </row>
+    <row r="27" spans="2:15" ht="12.75">
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+    </row>
+    <row r="28" spans="2:15" ht="12.75">
+      <c r="G28" s="16"/>
+    </row>
+    <row r="29" spans="2:15" ht="12.75">
+      <c r="G29" s="16"/>
+    </row>
+    <row r="30" spans="2:15" ht="12.75">
+      <c r="G30" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="78">
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="B11:B22"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="I8:I9"/>
@@ -2105,105 +2198,40 @@
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="L11:L12"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="B11:B22"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
     <mergeCell ref="K8:K9"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="L21:L22"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFE69138"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFF1C232"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/Documento de Análisis/Framework Proyecto Configuración del Software.xlsx
+++ b/doc/Documento de Análisis/Framework Proyecto Configuración del Software.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyecto_Conf\unmsm_G01_GCS\doc\Documento de Análisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BF7753-D8FA-49BF-9438-88F85D84EF11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F58B58-09A7-469C-A959-EA51F02FB1BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28065" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28065" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agile Project Charter" sheetId="1" r:id="rId1"/>
@@ -755,41 +755,41 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1016,8 +1016,8 @@
   </sheetPr>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1025,50 +1025,50 @@
     <col min="2" max="2" width="27.7109375" customWidth="1"/>
     <col min="3" max="3" width="24.28515625" customWidth="1"/>
     <col min="4" max="4" width="41.140625" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" customWidth="1"/>
+    <col min="5" max="5" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="12.75">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:9">
-      <c r="B2" s="26" t="s">
+    <row r="2" spans="1:9" ht="12.75">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="20"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:9">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:9" ht="34.5" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="20"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:9">
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="20"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1082,8 +1082,8 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:9">
-      <c r="B7" s="21"/>
+    <row r="7" spans="1:9" ht="30">
+      <c r="B7" s="23"/>
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
@@ -1094,8 +1094,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="B8" s="21"/>
+    <row r="8" spans="1:9" ht="30">
+      <c r="B8" s="23"/>
       <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
@@ -1107,9 +1107,9 @@
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9">
-      <c r="B9" s="21"/>
-      <c r="C9" s="22" t="s">
+    <row r="9" spans="1:9" ht="15">
+      <c r="B9" s="23"/>
+      <c r="C9" s="25" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -1119,9 +1119,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
+    <row r="10" spans="1:9" ht="30">
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="6" t="s">
         <v>19</v>
       </c>
@@ -1129,9 +1129,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
+    <row r="11" spans="1:9" ht="15">
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="6" t="s">
         <v>21</v>
       </c>
@@ -1139,9 +1139,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
+    <row r="12" spans="1:9" ht="15">
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="6" t="s">
         <v>23</v>
       </c>
@@ -1150,9 +1150,9 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:9">
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
+    <row r="13" spans="1:9" ht="15">
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="6" t="s">
         <v>24</v>
       </c>
@@ -1160,9 +1160,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
+    <row r="14" spans="1:9" ht="15">
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="6" t="s">
         <v>25</v>
       </c>
@@ -1170,9 +1170,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
+    <row r="15" spans="1:9" ht="15">
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="6" t="s">
         <v>27</v>
       </c>
@@ -1180,9 +1180,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
+    <row r="16" spans="1:9" ht="15">
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="6" t="s">
         <v>28</v>
       </c>
@@ -1190,8 +1190,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="17" t="s">
+    <row r="17" spans="2:5" ht="15">
+      <c r="B17" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -1204,8 +1204,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="18"/>
+    <row r="18" spans="2:5" ht="30">
+      <c r="B18" s="24"/>
       <c r="C18" s="7" t="s">
         <v>34</v>
       </c>
@@ -1216,68 +1216,68 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="17" t="s">
+    <row r="19" spans="2:5" ht="15">
+      <c r="B19" s="22" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="27">
         <v>44347</v>
       </c>
-      <c r="E19" s="20"/>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="21"/>
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" spans="2:5" ht="30">
+      <c r="B20" s="23"/>
       <c r="C20" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="27">
         <v>44469</v>
       </c>
-      <c r="E20" s="20"/>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="21"/>
-      <c r="C21" s="22" t="s">
+      <c r="E20" s="19"/>
+    </row>
+    <row r="21" spans="2:5" ht="18.75" customHeight="1">
+      <c r="B21" s="23"/>
+      <c r="C21" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="20"/>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="24" t="s">
+      <c r="E21" s="19"/>
+    </row>
+    <row r="22" spans="2:5" ht="24" customHeight="1">
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="20"/>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="17" t="s">
+      <c r="E22" s="19"/>
+    </row>
+    <row r="23" spans="2:5" ht="12.75">
+      <c r="B23" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="26" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="17" t="s">
+    <row r="24" spans="2:5" ht="12.75">
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+    </row>
+    <row r="25" spans="2:5" ht="45">
+      <c r="B25" s="22" t="s">
         <v>47</v>
       </c>
       <c r="C25" s="10" t="s">
@@ -1290,8 +1290,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="18"/>
+    <row r="26" spans="2:5" ht="45">
+      <c r="B26" s="24"/>
       <c r="C26" s="10" t="s">
         <v>51</v>
       </c>
@@ -1302,28 +1302,29 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="17" t="s">
+    <row r="27" spans="2:5" ht="15">
+      <c r="B27" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="20"/>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="18"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="19"/>
+    </row>
+    <row r="28" spans="2:5" ht="15">
+      <c r="B28" s="24"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B6:B16"/>
-    <mergeCell ref="C9:C16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D20:E20"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="D21:E21"/>
@@ -1332,13 +1333,12 @@
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="C27:E27"/>
     <mergeCell ref="C28:E28"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B6:B16"/>
+    <mergeCell ref="C9:C16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -1355,7 +1355,7 @@
   </sheetPr>
   <dimension ref="B1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1375,40 +1375,40 @@
   <sheetData>
     <row r="1" spans="2:15" ht="6.75" customHeight="1"/>
     <row r="2" spans="2:15" ht="27.75" customHeight="1">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="30" t="s">
         <v>56</v>
       </c>
       <c r="D2" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="20"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
       <c r="G2" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="31" t="s">
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="M2" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="N2" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="O2" s="31" t="s">
+      <c r="O2" s="30" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="31.5">
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="11" t="s">
         <v>63</v>
       </c>
@@ -1433,13 +1433,13 @@
       <c r="K3" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
     </row>
     <row r="4" spans="2:15" ht="42.75">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="31" t="s">
         <v>71</v>
       </c>
       <c r="C4" s="29">
@@ -1477,51 +1477,51 @@
       <c r="O4" s="13"/>
     </row>
     <row r="5" spans="2:15" ht="42.75">
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
       <c r="G5" s="12">
         <v>2</v>
       </c>
-      <c r="H5" s="18"/>
+      <c r="H5" s="24"/>
       <c r="I5" s="28" t="s">
         <v>80</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
       <c r="M5" s="13"/>
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
     </row>
     <row r="6" spans="2:15" ht="42.75">
-      <c r="B6" s="21"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
       <c r="G6" s="12">
         <v>3</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I6" s="18"/>
+      <c r="I6" s="24"/>
       <c r="J6" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
     </row>
     <row r="7" spans="2:15" ht="42.75">
-      <c r="B7" s="21"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="14">
         <v>2</v>
       </c>
@@ -1557,7 +1557,7 @@
       <c r="O7" s="13"/>
     </row>
     <row r="8" spans="2:15" ht="31.5" customHeight="1">
-      <c r="B8" s="21"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="29">
         <v>3</v>
       </c>
@@ -1593,27 +1593,27 @@
       <c r="O8" s="13"/>
     </row>
     <row r="9" spans="2:15" ht="35.25" customHeight="1">
-      <c r="B9" s="21"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
       <c r="G9" s="12">
         <v>2</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
       <c r="O9" s="13"/>
     </row>
     <row r="10" spans="2:15" ht="42.75">
-      <c r="B10" s="18"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="14">
         <v>4</v>
       </c>
@@ -1649,7 +1649,7 @@
       <c r="O10" s="13"/>
     </row>
     <row r="11" spans="2:15" ht="27.75" customHeight="1">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="31" t="s">
         <v>102</v>
       </c>
       <c r="C11" s="29">
@@ -1687,27 +1687,27 @@
       <c r="O11" s="13"/>
     </row>
     <row r="12" spans="2:15" ht="30.75" customHeight="1">
-      <c r="B12" s="21"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
       <c r="G12" s="12">
         <v>2</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
     </row>
     <row r="13" spans="2:15" ht="38.25" customHeight="1">
-      <c r="B13" s="21"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="29">
         <v>6</v>
       </c>
@@ -1743,27 +1743,27 @@
       <c r="O13" s="13"/>
     </row>
     <row r="14" spans="2:15" ht="38.25" customHeight="1">
-      <c r="B14" s="21"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
       <c r="G14" s="12">
         <v>2</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
     </row>
     <row r="15" spans="2:15" ht="27" customHeight="1">
-      <c r="B15" s="21"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="29">
         <v>7</v>
       </c>
@@ -1799,31 +1799,31 @@
       <c r="O15" s="13"/>
     </row>
     <row r="16" spans="2:15" ht="24" customHeight="1">
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
       <c r="G16" s="12">
         <v>2</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="18"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="24"/>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
     </row>
     <row r="17" spans="2:15" ht="24" customHeight="1">
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
       <c r="G17" s="12">
         <v>3</v>
       </c>
@@ -1836,7 +1836,7 @@
       <c r="J17" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="K17" s="21"/>
+      <c r="K17" s="23"/>
       <c r="L17" s="28" t="s">
         <v>123</v>
       </c>
@@ -1845,27 +1845,27 @@
       <c r="O17" s="13"/>
     </row>
     <row r="18" spans="2:15" ht="24" customHeight="1">
-      <c r="B18" s="21"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
       <c r="G18" s="12">
         <v>4</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
     </row>
     <row r="19" spans="2:15" ht="48" customHeight="1">
-      <c r="B19" s="21"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="29">
         <v>8</v>
       </c>
@@ -1901,27 +1901,27 @@
       <c r="O19" s="13"/>
     </row>
     <row r="20" spans="2:15" ht="48" customHeight="1">
-      <c r="B20" s="21"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
       <c r="G20" s="12">
         <v>2</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
     </row>
     <row r="21" spans="2:15" ht="60" customHeight="1">
-      <c r="B21" s="21"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="29">
         <v>9</v>
       </c>
@@ -1957,27 +1957,27 @@
       <c r="O21" s="13"/>
     </row>
     <row r="22" spans="2:15" ht="58.5" customHeight="1">
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
       <c r="G22" s="12">
         <v>2</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
       <c r="M22" s="13"/>
       <c r="N22" s="13"/>
       <c r="O22" s="13"/>
     </row>
     <row r="23" spans="2:15" ht="39.75" customHeight="1">
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="31" t="s">
         <v>136</v>
       </c>
       <c r="C23" s="29">
@@ -2015,27 +2015,27 @@
       <c r="O23" s="13"/>
     </row>
     <row r="24" spans="2:15" ht="39.75" customHeight="1">
-      <c r="B24" s="21"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
       <c r="G24" s="12">
         <v>2</v>
       </c>
       <c r="H24" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
     </row>
     <row r="25" spans="2:15" ht="57">
-      <c r="B25" s="21"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="14">
         <v>11</v>
       </c>
@@ -2071,7 +2071,7 @@
       <c r="O25" s="13"/>
     </row>
     <row r="26" spans="2:15" ht="88.5" customHeight="1">
-      <c r="B26" s="18"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="14">
         <v>12</v>
       </c>
@@ -2121,57 +2121,18 @@
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
     <mergeCell ref="B11:B22"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
@@ -2181,24 +2142,63 @@
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G2:K2"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="L8:L9"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="L11:L12"/>
     <mergeCell ref="K8:K9"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="I21:I22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/Documento de Análisis/Framework Proyecto Configuración del Software.xlsx
+++ b/doc/Documento de Análisis/Framework Proyecto Configuración del Software.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyecto_Conf\unmsm_G01_GCS\doc\Documento de Análisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F58B58-09A7-469C-A959-EA51F02FB1BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBD6F06A-4775-4BC4-8C9C-01CA374C5679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28065" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agile Project Charter" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,312 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Joseph Vega Blácido</author>
+  </authors>
+  <commentList>
+    <comment ref="J7" authorId="0" shapeId="0" xr:uid="{94DDAF71-BA0A-4697-B572-A125C3E5E90E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Joseph Vega Blácido:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Se valide con regex el formato de correo y la existencia del correo en la BBDD</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K7" authorId="0" shapeId="0" xr:uid="{FD88D9FC-DFCF-4018-9D56-445C59A95C2D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Joseph Vega Blácido:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Aquí puedes usar distinto tipos de autenticación de usuario (OTP - email ~ código de verificación~)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L8" authorId="0" shapeId="0" xr:uid="{EE7FD8D2-870F-443C-8652-3868D6A70B7F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Joseph Vega Blácido:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+¿Se puede seleccionar más de una etiqueta en el filtrado?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I10" authorId="0" shapeId="0" xr:uid="{E8353AFE-7DFA-451E-851B-F11C6915B3DC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Joseph Vega Blácido:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+En el registro del usuario se realiza con email o solo con username? Si es solo con username como se realiza el proceso de cambio de contraseña?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{716E81AB-CD44-4FB0-9E64-5C1D74A1DA4E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Joseph Vega Blácido:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+*Agregar o quitar prendas</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J11" authorId="0" shapeId="0" xr:uid="{9B56C84A-3E06-4A0E-B510-1812B3F834CA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Joseph Vega Blácido:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Entonces solo sería el proceso de añadir prendas al carrito</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L15" authorId="0" shapeId="0" xr:uid="{1E120D85-64BC-42AC-9D1F-2EBF29E22902}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Joseph Vega Blácido:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Validación de…? Stock?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L17" authorId="0" shapeId="0" xr:uid="{E7FDD777-4055-4D64-96B6-EF90F0FD2DB0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Joseph Vega Blácido:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Como recomendación puedes usar:
+- Guardado de los items a comprar en local storage y mostrar en el carrito la data
+- Guardado de los items en backend (tabla id producto, tabla id user) y enviar al front la lista de items con user id = al loggeado {Esto es más para guardar los items luego del logout}</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L19" authorId="0" shapeId="0" xr:uid="{D7B33A18-927B-4161-9039-8D60D5E2DA26}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Joseph Vega Blácido:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Puede dejarse como invitado y registrado, no siempre la direccion es la misma a lo largo del tiempo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I21" authorId="0" shapeId="0" xr:uid="{046B6E21-8324-4EED-B037-779C0D301C80}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Joseph Vega Blácido:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+El carrito tenga items y tengan stock</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L25" authorId="0" shapeId="0" xr:uid="{3458854D-8A30-4024-BD0D-0E8F8150CA73}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Joseph Vega Blácido:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Usar un captcha en el envío de la solicitud para evitar saturación de la BBDD, las sugerencias de etiquetas en una tabla separada</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L26" authorId="0" shapeId="0" xr:uid="{168A0761-76BA-41F1-B962-1FC50BEC9C5B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Joseph Vega Blácido:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Las valoraciones de producto deben ser visibles desde la primera vista del producto.
+*Estrellas del 1 al 5*
+Enviar al backend...
+{
+"stars": 5,
+"comment": "Lorem Ipsum",
+}</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="155">
   <si>
@@ -497,7 +803,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -575,8 +881,21 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -605,6 +924,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC9DAF8"/>
         <bgColor rgb="FFC9DAF8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -709,7 +1034,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -743,16 +1068,22 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -780,19 +1111,25 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1016,8 +1353,8 @@
   </sheetPr>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1032,43 +1369,43 @@
       <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="12.75">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
     </row>
     <row r="3" spans="1:9">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
     </row>
     <row r="4" spans="1:9" ht="34.5" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
     </row>
     <row r="5" spans="1:9">
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="24" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1082,8 +1419,8 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="30">
-      <c r="B7" s="23"/>
+    <row r="7" spans="1:9" ht="15">
+      <c r="B7" s="25"/>
       <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
@@ -1095,7 +1432,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="30">
-      <c r="B8" s="23"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
@@ -1108,8 +1445,8 @@
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" ht="15">
-      <c r="B9" s="23"/>
-      <c r="C9" s="25" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="27" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -1119,9 +1456,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30">
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
+    <row r="10" spans="1:9" ht="15">
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="6" t="s">
         <v>19</v>
       </c>
@@ -1130,8 +1467,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15">
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
       <c r="D11" s="6" t="s">
         <v>21</v>
       </c>
@@ -1140,8 +1477,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15">
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="6" t="s">
         <v>23</v>
       </c>
@@ -1151,8 +1488,8 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:9" ht="15">
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="6" t="s">
         <v>24</v>
       </c>
@@ -1161,8 +1498,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15">
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="6" t="s">
         <v>25</v>
       </c>
@@ -1171,8 +1508,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15">
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="6" t="s">
         <v>27</v>
       </c>
@@ -1181,8 +1518,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="15">
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="6" t="s">
         <v>28</v>
       </c>
@@ -1191,7 +1528,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="15">
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="24" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -1205,7 +1542,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="30">
-      <c r="B18" s="24"/>
+      <c r="B18" s="26"/>
       <c r="C18" s="7" t="s">
         <v>34</v>
       </c>
@@ -1217,67 +1554,67 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="15">
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="24" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="29">
         <v>44347</v>
       </c>
-      <c r="E19" s="19"/>
+      <c r="E19" s="21"/>
     </row>
     <row r="20" spans="2:5" ht="30">
-      <c r="B20" s="23"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="29">
         <v>44469</v>
       </c>
-      <c r="E20" s="19"/>
+      <c r="E20" s="21"/>
     </row>
     <row r="21" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B21" s="23"/>
-      <c r="C21" s="25" t="s">
+      <c r="B21" s="25"/>
+      <c r="C21" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="19"/>
+      <c r="E21" s="21"/>
     </row>
     <row r="22" spans="2:5" ht="24" customHeight="1">
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="20" t="s">
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="19"/>
+      <c r="E22" s="21"/>
     </row>
     <row r="23" spans="2:5" ht="12.75">
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="28" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="12.75">
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
     </row>
     <row r="25" spans="2:5" ht="45">
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="24" t="s">
         <v>47</v>
       </c>
       <c r="C25" s="10" t="s">
@@ -1291,7 +1628,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" ht="45">
-      <c r="B26" s="24"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="10" t="s">
         <v>51</v>
       </c>
@@ -1303,18 +1640,18 @@
       </c>
     </row>
     <row r="27" spans="2:5" ht="15">
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="19"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="21"/>
     </row>
     <row r="28" spans="2:5" ht="15">
-      <c r="B28" s="24"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="19"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -1348,14 +1685,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFCC0000"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B1:O30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13:L14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1375,40 +1714,40 @@
   <sheetData>
     <row r="1" spans="2:15" ht="6.75" customHeight="1"/>
     <row r="2" spans="2:15" ht="27.75" customHeight="1">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="32" t="s">
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="30" t="s">
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="M2" s="30" t="s">
+      <c r="M2" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="N2" s="30" t="s">
+      <c r="N2" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="O2" s="30" t="s">
+      <c r="O2" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="31.5">
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="11" t="s">
         <v>63</v>
       </c>
@@ -1433,691 +1772,691 @@
       <c r="K3" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
     </row>
     <row r="4" spans="2:15" ht="42.75">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="34">
         <v>1</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="17">
         <v>1</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="L4" s="28" t="s">
+      <c r="L4" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
     </row>
     <row r="5" spans="2:15" ht="42.75">
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="12">
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="17">
         <v>2</v>
       </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="28" t="s">
+      <c r="H5" s="33"/>
+      <c r="I5" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
     </row>
     <row r="6" spans="2:15" ht="42.75">
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="12">
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="17">
         <v>3</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="12" t="s">
+      <c r="I6" s="33"/>
+      <c r="J6" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-    </row>
-    <row r="7" spans="2:15" ht="42.75">
-      <c r="B7" s="23"/>
-      <c r="C7" s="14">
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+    </row>
+    <row r="7" spans="2:15" ht="57">
+      <c r="B7" s="25"/>
+      <c r="C7" s="13">
         <v>2</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="17">
         <v>1</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
     </row>
     <row r="8" spans="2:15" ht="31.5" customHeight="1">
-      <c r="B8" s="23"/>
-      <c r="C8" s="29">
+      <c r="B8" s="25"/>
+      <c r="C8" s="34">
         <v>3</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="17">
         <v>1</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="J8" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="K8" s="28" t="s">
+      <c r="K8" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="L8" s="28" t="s">
+      <c r="L8" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
     </row>
     <row r="9" spans="2:15" ht="35.25" customHeight="1">
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="12">
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="17">
         <v>2</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
     </row>
     <row r="10" spans="2:15" ht="42.75">
-      <c r="B10" s="24"/>
-      <c r="C10" s="14">
+      <c r="B10" s="26"/>
+      <c r="C10" s="13">
         <v>4</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="17">
         <v>1</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="L10" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
     </row>
     <row r="11" spans="2:15" ht="27.75" customHeight="1">
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="34">
         <v>5</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="17">
         <v>1</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="I11" s="28" t="s">
+      <c r="I11" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="J11" s="28" t="s">
+      <c r="J11" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="K11" s="28" t="s">
+      <c r="K11" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="L11" s="28" t="s">
+      <c r="L11" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
     </row>
     <row r="12" spans="2:15" ht="30.75" customHeight="1">
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="12">
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="17">
         <v>2</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
     </row>
     <row r="13" spans="2:15" ht="38.25" customHeight="1">
-      <c r="B13" s="23"/>
-      <c r="C13" s="29">
+      <c r="B13" s="25"/>
+      <c r="C13" s="34">
         <v>6</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="17">
         <v>1</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="I13" s="28" t="s">
+      <c r="I13" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="J13" s="28" t="s">
+      <c r="J13" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="K13" s="28" t="s">
+      <c r="K13" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="L13" s="28" t="s">
+      <c r="L13" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
     </row>
     <row r="14" spans="2:15" ht="38.25" customHeight="1">
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="12">
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="17">
         <v>2</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
     </row>
     <row r="15" spans="2:15" ht="27" customHeight="1">
-      <c r="B15" s="23"/>
-      <c r="C15" s="29">
+      <c r="B15" s="25"/>
+      <c r="C15" s="34">
         <v>7</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="17">
         <v>1</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="I15" s="28" t="s">
+      <c r="I15" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="J15" s="28" t="s">
+      <c r="J15" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="K15" s="28" t="s">
+      <c r="K15" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="L15" s="28" t="s">
+      <c r="L15" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
     </row>
     <row r="16" spans="2:15" ht="24" customHeight="1">
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="12">
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="17">
         <v>2</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
     </row>
     <row r="17" spans="2:15" ht="24" customHeight="1">
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="12">
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="17">
         <v>3</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="I17" s="28" t="s">
+      <c r="I17" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="J17" s="28" t="s">
+      <c r="J17" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="K17" s="23"/>
-      <c r="L17" s="28" t="s">
+      <c r="K17" s="35"/>
+      <c r="L17" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
     </row>
     <row r="18" spans="2:15" ht="24" customHeight="1">
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="12">
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="17">
         <v>4</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
     </row>
     <row r="19" spans="2:15" ht="48" customHeight="1">
-      <c r="B19" s="23"/>
-      <c r="C19" s="29">
+      <c r="B19" s="25"/>
+      <c r="C19" s="34">
         <v>8</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="F19" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="17">
         <v>1</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="I19" s="28" t="s">
+      <c r="I19" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="J19" s="28" t="s">
+      <c r="J19" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="K19" s="28" t="s">
+      <c r="K19" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="L19" s="28" t="s">
+      <c r="L19" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
     </row>
     <row r="20" spans="2:15" ht="48" customHeight="1">
-      <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="12">
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="17">
         <v>2</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
     </row>
     <row r="21" spans="2:15" ht="60" customHeight="1">
-      <c r="B21" s="23"/>
-      <c r="C21" s="29">
+      <c r="B21" s="25"/>
+      <c r="C21" s="34">
         <v>9</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="17">
         <v>1</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="I21" s="28" t="s">
+      <c r="I21" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="J21" s="28" t="s">
+      <c r="J21" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="K21" s="28" t="s">
+      <c r="K21" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="L21" s="28" t="s">
+      <c r="L21" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
     </row>
     <row r="22" spans="2:15" ht="58.5" customHeight="1">
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="12">
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="17">
         <v>2</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
     </row>
     <row r="23" spans="2:15" ht="39.75" customHeight="1">
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C23" s="34">
         <v>10</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="28" t="s">
+      <c r="E23" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="F23" s="28" t="s">
+      <c r="F23" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="17">
         <v>1</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="H23" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="I23" s="28" t="s">
+      <c r="I23" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="J23" s="28" t="s">
+      <c r="J23" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="K23" s="28" t="s">
+      <c r="K23" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="L23" s="28" t="s">
+      <c r="L23" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
     </row>
     <row r="24" spans="2:15" ht="39.75" customHeight="1">
-      <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="12">
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="17">
         <v>2</v>
       </c>
-      <c r="H24" s="12" t="s">
+      <c r="H24" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
     </row>
     <row r="25" spans="2:15" ht="57">
-      <c r="B25" s="23"/>
-      <c r="C25" s="14">
+      <c r="B25" s="25"/>
+      <c r="C25" s="13">
         <v>11</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="17">
         <v>1</v>
       </c>
-      <c r="H25" s="12" t="s">
+      <c r="H25" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="I25" s="15" t="s">
+      <c r="I25" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="J25" s="15" t="s">
+      <c r="J25" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="K25" s="15" t="s">
+      <c r="K25" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="L25" s="15" t="s">
+      <c r="L25" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
     </row>
     <row r="26" spans="2:15" ht="88.5" customHeight="1">
-      <c r="B26" s="24"/>
-      <c r="C26" s="14">
+      <c r="B26" s="26"/>
+      <c r="C26" s="13">
         <v>12</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="17">
         <v>1</v>
       </c>
-      <c r="H26" s="12" t="s">
+      <c r="H26" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="I26" s="12" t="s">
+      <c r="I26" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="J26" s="12" t="s">
+      <c r="J26" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="K26" s="12" t="s">
+      <c r="K26" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="L26" s="12" t="s">
+      <c r="L26" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
     </row>
     <row r="27" spans="2:15" ht="12.75">
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
     </row>
     <row r="28" spans="2:15" ht="12.75">
-      <c r="G28" s="16"/>
+      <c r="G28" s="14"/>
     </row>
     <row r="29" spans="2:15" ht="12.75">
-      <c r="G29" s="16"/>
+      <c r="G29" s="14"/>
     </row>
     <row r="30" spans="2:15" ht="12.75">
-      <c r="G30" s="16"/>
+      <c r="G30" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="78">
@@ -2126,6 +2465,9 @@
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="L11:L12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="B23:B26"/>
@@ -2151,14 +2493,6 @@
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
@@ -2199,8 +2533,14 @@
     <mergeCell ref="J21:J22"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
